--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1483058.906713021</v>
+        <v>1480710.866823591</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5861169.424157204</v>
+        <v>5861169.42415719</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673451</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>257.6874004056837</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.823190303973066</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933832</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>43.00979488960161</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686241</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>171.2668149623691</v>
       </c>
       <c r="G5" t="n">
-        <v>42.39763556529129</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>300.2994412657488</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>163.9206648785247</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>8.715333384834466</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I11" t="n">
-        <v>59.00713057159939</v>
+        <v>59.0071305715997</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749025</v>
       </c>
       <c r="T11" t="n">
         <v>205.8971077829946</v>
@@ -1464,10 +1464,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H12" t="n">
-        <v>91.93315268608707</v>
+        <v>91.93315268608711</v>
       </c>
       <c r="I12" t="n">
-        <v>17.02016206544153</v>
+        <v>17.02016206544167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T12" t="n">
         <v>191.6916106499414</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>6.8689247290975</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T13" t="n">
-        <v>156.1170420264768</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2229002233179</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.3738416199582</v>
       </c>
       <c r="H14" t="n">
-        <v>299.237997029287</v>
+        <v>299.2379970292874</v>
       </c>
       <c r="I14" t="n">
-        <v>59.00713057159939</v>
+        <v>59.0071305715997</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749025</v>
       </c>
       <c r="T14" t="n">
         <v>205.8971077829946</v>
@@ -1701,10 +1701,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93315268608707</v>
+        <v>91.93315268608711</v>
       </c>
       <c r="I15" t="n">
-        <v>17.02016206544153</v>
+        <v>17.02016206544167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T15" t="n">
         <v>191.6916106499414</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0.7696546929281567</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.2286119169542</v>
@@ -1783,7 +1783,7 @@
         <v>146.5581238002446</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4512795045581</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.05094259824696</v>
+        <v>98.05094259824712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>20.42447457193159</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I17" t="n">
-        <v>59.00713057159939</v>
+        <v>59.0071305715997</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749025</v>
       </c>
       <c r="T17" t="n">
         <v>205.8971077829946</v>
@@ -1938,10 +1938,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H18" t="n">
-        <v>91.93315268608707</v>
+        <v>91.93315268608711</v>
       </c>
       <c r="I18" t="n">
-        <v>17.02016206544153</v>
+        <v>17.02016206544167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T18" t="n">
         <v>191.6916106499414</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>147.7164283298988</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>73.78755020018411</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I20" t="n">
-        <v>59.00713057159936</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T20" t="n">
         <v>205.8971077829946</v>
@@ -2175,10 +2175,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H21" t="n">
-        <v>91.93315268608707</v>
+        <v>91.93315268608708</v>
       </c>
       <c r="I21" t="n">
-        <v>17.02016206544153</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T21" t="n">
         <v>191.6916106499414</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>125.9558566657787</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>82.76041991336604</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T22" t="n">
         <v>220.4154739963984</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I23" t="n">
-        <v>59.00713057159936</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T23" t="n">
         <v>205.8971077829946</v>
@@ -2412,10 +2412,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H24" t="n">
-        <v>91.93315268608707</v>
+        <v>91.93315268608708</v>
       </c>
       <c r="I24" t="n">
-        <v>17.02016206544153</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T24" t="n">
         <v>191.6916106499414</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.2286119169542</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>65.92570893423571</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S25" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>166.9825983721742</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>167.2943223756777</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.5541150305851</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>122.7920547052924</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>151.1431828715783</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3238,19 +3238,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>239.1384001047441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>54.84676165530311</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.9117655188005</v>
+        <v>132.911765518801</v>
       </c>
       <c r="C37" t="n">
-        <v>120.326606435491</v>
+        <v>120.3266064354915</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6952583550755</v>
+        <v>101.6952583550761</v>
       </c>
       <c r="E37" t="n">
-        <v>99.51374798343235</v>
+        <v>98.20436462779141</v>
       </c>
       <c r="F37" t="n">
-        <v>98.50083335979443</v>
+        <v>98.50083335979495</v>
       </c>
       <c r="G37" t="n">
-        <v>119.1055935958914</v>
+        <v>119.1055935958919</v>
       </c>
       <c r="H37" t="n">
-        <v>97.83480025118396</v>
+        <v>97.83480025118449</v>
       </c>
       <c r="I37" t="n">
-        <v>49.43220574670128</v>
+        <v>49.4322057467018</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.01193800691051</v>
+        <v>42.01193800691105</v>
       </c>
       <c r="S37" t="n">
-        <v>142.8488106683051</v>
+        <v>142.8488106683056</v>
       </c>
       <c r="T37" t="n">
-        <v>172.6287346130324</v>
+        <v>172.6287346130329</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2916235424761</v>
+        <v>239.2916235424766</v>
       </c>
       <c r="V37" t="n">
-        <v>205.2174286606912</v>
+        <v>205.2174286606917</v>
       </c>
       <c r="W37" t="n">
-        <v>239.6027836734542</v>
+        <v>239.6027836734547</v>
       </c>
       <c r="X37" t="n">
-        <v>177.4800573702716</v>
+        <v>178.7894407259009</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.664438688958</v>
+        <v>171.6644386889585</v>
       </c>
     </row>
     <row r="38">
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,10 +3718,10 @@
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052346</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179988</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404365</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1469.273141255051</v>
+        <v>885.7444020895357</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.273141255051</v>
+        <v>885.7444020895357</v>
       </c>
       <c r="D2" t="n">
-        <v>1111.007442648301</v>
+        <v>885.7444020895357</v>
       </c>
       <c r="E2" t="n">
-        <v>725.2191900500566</v>
+        <v>885.7444020895357</v>
       </c>
       <c r="F2" t="n">
-        <v>314.233285260449</v>
+        <v>474.7584972999281</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>56.79468919811501</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>56.79468919811501</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>1859.412473230863</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1469.273141255051</v>
+        <v>1272.344242153657</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4404,52 +4404,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C4" t="n">
-        <v>381.6292235663332</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>702.5573625732399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>799.8716139843721</v>
+        <v>1525.597764264522</v>
       </c>
       <c r="C5" t="n">
-        <v>430.9090970439603</v>
+        <v>1156.63524732411</v>
       </c>
       <c r="D5" t="n">
-        <v>430.9090970439603</v>
+        <v>798.3695487173597</v>
       </c>
       <c r="E5" t="n">
-        <v>430.9090970439603</v>
+        <v>798.3695487173597</v>
       </c>
       <c r="F5" t="n">
-        <v>423.9635962947569</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X5" t="n">
-        <v>1190.010945960184</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y5" t="n">
-        <v>799.8716139843721</v>
+        <v>1912.197604328644</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,10 +4647,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.1446555862789</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>240.388315801204</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>240.388315801204</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>233.4428150520005</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>219.5194109905914</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374204</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>231.7461491374204</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>62.7463488757528</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="11">
@@ -5015,58 +5015,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.67431112977</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.711794189357</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D11" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582608</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984363</v>
       </c>
       <c r="F11" t="n">
-        <v>873.6719381947548</v>
+        <v>873.6719381947555</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1428052453023</v>
+        <v>458.1428052453027</v>
       </c>
       <c r="H11" t="n">
-        <v>155.8822021854164</v>
+        <v>155.8822021854168</v>
       </c>
       <c r="I11" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J11" t="n">
-        <v>414.574770234251</v>
+        <v>414.5747702342504</v>
       </c>
       <c r="K11" t="n">
-        <v>1012.362364459018</v>
+        <v>1012.362364459016</v>
       </c>
       <c r="L11" t="n">
-        <v>1806.24736263202</v>
+        <v>1806.247362632017</v>
       </c>
       <c r="M11" t="n">
-        <v>2387.395193600492</v>
+        <v>2261.185535677452</v>
       </c>
       <c r="N11" t="n">
-        <v>2854.308550287853</v>
+        <v>3161.072347532677</v>
       </c>
       <c r="O11" t="n">
-        <v>3658.858511106399</v>
+        <v>3658.858511106402</v>
       </c>
       <c r="P11" t="n">
-        <v>4307.848905836291</v>
+        <v>4307.848905836293</v>
       </c>
       <c r="Q11" t="n">
-        <v>4717.991904648171</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S11" t="n">
-        <v>4693.254671942666</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T11" t="n">
         <v>4485.277795394188</v>
@@ -5094,61 +5094,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>972.0997922012563</v>
+        <v>972.0997922012565</v>
       </c>
       <c r="C12" t="n">
-        <v>797.6467629201293</v>
+        <v>797.6467629201295</v>
       </c>
       <c r="D12" t="n">
-        <v>648.712353258878</v>
+        <v>648.7123532588782</v>
       </c>
       <c r="E12" t="n">
-        <v>489.4748982534225</v>
+        <v>489.4748982534227</v>
       </c>
       <c r="F12" t="n">
-        <v>342.9403402803074</v>
+        <v>342.9403402803076</v>
       </c>
       <c r="G12" t="n">
-        <v>206.332893276254</v>
+        <v>206.3328932762542</v>
       </c>
       <c r="H12" t="n">
-        <v>113.471122886267</v>
+        <v>113.4711228862672</v>
       </c>
       <c r="I12" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J12" t="n">
-        <v>167.330291710181</v>
+        <v>292.1604166971853</v>
       </c>
       <c r="K12" t="n">
-        <v>366.9230224985485</v>
+        <v>491.7531474855522</v>
       </c>
       <c r="L12" t="n">
-        <v>1048.754563321933</v>
+        <v>806.4527464585108</v>
       </c>
       <c r="M12" t="n">
-        <v>1435.351020074502</v>
+        <v>1443.945523581155</v>
       </c>
       <c r="N12" t="n">
-        <v>1846.588179599399</v>
+        <v>1855.182683106051</v>
       </c>
       <c r="O12" t="n">
-        <v>2200.57004366557</v>
+        <v>2209.164547172221</v>
       </c>
       <c r="P12" t="n">
-        <v>2465.338630927793</v>
+        <v>2473.933134434443</v>
       </c>
       <c r="Q12" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="R12" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="S12" t="n">
         <v>2467.028205012516</v>
       </c>
       <c r="T12" t="n">
-        <v>2273.40031546712</v>
+        <v>2273.400315467121</v>
       </c>
       <c r="U12" t="n">
         <v>2045.316393151755</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1205899613211</v>
+        <v>570.1832637216869</v>
       </c>
       <c r="C13" t="n">
-        <v>539.1205899613211</v>
+        <v>401.2470807937797</v>
       </c>
       <c r="D13" t="n">
-        <v>539.1205899613211</v>
+        <v>251.130441381444</v>
       </c>
       <c r="E13" t="n">
-        <v>391.207496378928</v>
+        <v>103.2173477990509</v>
       </c>
       <c r="F13" t="n">
-        <v>244.3175488810176</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G13" t="n">
-        <v>244.3175488810176</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H13" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I13" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J13" t="n">
-        <v>127.2068360096032</v>
+        <v>127.206836009603</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8675422238331</v>
+        <v>307.8675422238313</v>
       </c>
       <c r="L13" t="n">
-        <v>594.577481476834</v>
+        <v>594.5774814768317</v>
       </c>
       <c r="M13" t="n">
-        <v>907.262035813822</v>
+        <v>907.2620358138191</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.946266754873</v>
+        <v>1217.946266754869</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.897144214386</v>
+        <v>1488.897144214382</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.221745862618</v>
+        <v>1697.221745862614</v>
       </c>
       <c r="Q13" t="n">
-        <v>1758.019821576726</v>
+        <v>1758.019821576722</v>
       </c>
       <c r="R13" t="n">
-        <v>1758.019821576726</v>
+        <v>1758.019821576722</v>
       </c>
       <c r="S13" t="n">
-        <v>1758.019821576726</v>
+        <v>1562.763922598735</v>
       </c>
       <c r="T13" t="n">
-        <v>1600.3258397318</v>
+        <v>1562.763922598735</v>
       </c>
       <c r="U13" t="n">
-        <v>1311.211799102186</v>
+        <v>1273.649881969121</v>
       </c>
       <c r="V13" t="n">
-        <v>1056.527310896299</v>
+        <v>1018.965393763234</v>
       </c>
       <c r="W13" t="n">
-        <v>767.1101408593386</v>
+        <v>1018.965393763234</v>
       </c>
       <c r="X13" t="n">
-        <v>539.1205899613211</v>
+        <v>790.975842865217</v>
       </c>
       <c r="Y13" t="n">
-        <v>539.1205899613211</v>
+        <v>570.1832637216869</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.67431112977</v>
       </c>
       <c r="C14" t="n">
         <v>2028.711794189358</v>
@@ -5267,61 +5267,61 @@
         <v>873.671938194756</v>
       </c>
       <c r="G14" t="n">
-        <v>458.142805245303</v>
+        <v>458.1428052453031</v>
       </c>
       <c r="H14" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854168</v>
       </c>
       <c r="I14" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J14" t="n">
-        <v>414.574770234251</v>
+        <v>414.5747702342504</v>
       </c>
       <c r="K14" t="n">
-        <v>1012.362364459018</v>
+        <v>1012.362364459016</v>
       </c>
       <c r="L14" t="n">
-        <v>1806.24736263202</v>
+        <v>1806.247362632017</v>
       </c>
       <c r="M14" t="n">
-        <v>2261.185535677456</v>
+        <v>2261.185535677452</v>
       </c>
       <c r="N14" t="n">
-        <v>2854.308550287853</v>
+        <v>2854.308550287858</v>
       </c>
       <c r="O14" t="n">
-        <v>3658.858511106399</v>
+        <v>3658.858511106402</v>
       </c>
       <c r="P14" t="n">
-        <v>4307.848905836291</v>
+        <v>4307.848905836293</v>
       </c>
       <c r="Q14" t="n">
-        <v>4717.991904648171</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S14" t="n">
-        <v>4693.254671942666</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T14" t="n">
         <v>4485.277795394188</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044469</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.647896700897</v>
+        <v>3900.647896700898</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.879241430783</v>
+        <v>3547.879241430784</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.413483169703</v>
+        <v>3174.413483169704</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.274151193891</v>
+        <v>2784.274151193892</v>
       </c>
     </row>
     <row r="15">
@@ -5331,61 +5331,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>972.0997922012563</v>
+        <v>972.0997922012565</v>
       </c>
       <c r="C15" t="n">
-        <v>797.6467629201293</v>
+        <v>797.6467629201295</v>
       </c>
       <c r="D15" t="n">
-        <v>648.712353258878</v>
+        <v>648.7123532588782</v>
       </c>
       <c r="E15" t="n">
-        <v>489.4748982534225</v>
+        <v>489.4748982534227</v>
       </c>
       <c r="F15" t="n">
-        <v>342.9403402803074</v>
+        <v>342.9403402803076</v>
       </c>
       <c r="G15" t="n">
-        <v>206.332893276254</v>
+        <v>206.3328932762542</v>
       </c>
       <c r="H15" t="n">
-        <v>113.471122886267</v>
+        <v>113.4711228862672</v>
       </c>
       <c r="I15" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J15" t="n">
-        <v>292.1604166971857</v>
+        <v>167.3302917101806</v>
       </c>
       <c r="K15" t="n">
-        <v>534.6729529971312</v>
+        <v>366.9230224985474</v>
       </c>
       <c r="L15" t="n">
-        <v>849.3725519700907</v>
+        <v>681.622621471506</v>
       </c>
       <c r="M15" t="n">
-        <v>1235.96900872266</v>
+        <v>1068.219078224074</v>
       </c>
       <c r="N15" t="n">
-        <v>1647.206168247558</v>
+        <v>1647.206168247561</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.188032313728</v>
+        <v>2001.18803231373</v>
       </c>
       <c r="P15" t="n">
-        <v>2265.956619575951</v>
+        <v>2265.956619575953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="R15" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="S15" t="n">
         <v>2467.028205012516</v>
       </c>
       <c r="T15" t="n">
-        <v>2273.40031546712</v>
+        <v>2273.400315467121</v>
       </c>
       <c r="U15" t="n">
         <v>2045.316393151755</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>878.1680075241746</v>
+        <v>516.4888075824731</v>
       </c>
       <c r="C16" t="n">
-        <v>709.2318245962678</v>
+        <v>516.4888075824726</v>
       </c>
       <c r="D16" t="n">
-        <v>559.115185183932</v>
+        <v>515.7113785997169</v>
       </c>
       <c r="E16" t="n">
-        <v>559.115185183932</v>
+        <v>515.7113785997169</v>
       </c>
       <c r="F16" t="n">
-        <v>412.2252376860216</v>
+        <v>515.7113785997169</v>
       </c>
       <c r="G16" t="n">
-        <v>244.3175488810176</v>
+        <v>347.8036897947127</v>
       </c>
       <c r="H16" t="n">
-        <v>96.27903999188166</v>
+        <v>199.7651809055767</v>
       </c>
       <c r="I16" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J16" t="n">
-        <v>127.2068360096032</v>
+        <v>127.206836009603</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8675422238318</v>
+        <v>307.8675422238313</v>
       </c>
       <c r="L16" t="n">
-        <v>594.5774814768326</v>
+        <v>594.5774814768316</v>
       </c>
       <c r="M16" t="n">
-        <v>907.2620358138206</v>
+        <v>907.262035813819</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.946266754869</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.897144214385</v>
+        <v>1488.897144214382</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.221745862617</v>
+        <v>1697.221745862614</v>
       </c>
       <c r="Q16" t="n">
-        <v>1758.019821576725</v>
+        <v>1758.019821576722</v>
       </c>
       <c r="R16" t="n">
-        <v>1658.97846541688</v>
+        <v>1658.978465416876</v>
       </c>
       <c r="S16" t="n">
-        <v>1658.97846541688</v>
+        <v>1658.978465416876</v>
       </c>
       <c r="T16" t="n">
-        <v>1658.97846541688</v>
+        <v>1436.336572491221</v>
       </c>
       <c r="U16" t="n">
-        <v>1369.864424787266</v>
+        <v>1436.336572491221</v>
       </c>
       <c r="V16" t="n">
-        <v>1349.233642391375</v>
+        <v>1436.336572491221</v>
       </c>
       <c r="W16" t="n">
-        <v>1059.816472354414</v>
+        <v>1146.91940245426</v>
       </c>
       <c r="X16" t="n">
-        <v>1059.816472354414</v>
+        <v>918.929851556243</v>
       </c>
       <c r="Y16" t="n">
-        <v>1059.816472354414</v>
+        <v>698.1372724127128</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>458.142805245303</v>
       </c>
       <c r="H17" t="n">
-        <v>155.8822021854164</v>
+        <v>155.8822021854167</v>
       </c>
       <c r="I17" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J17" t="n">
-        <v>414.574770234251</v>
+        <v>414.5747702342504</v>
       </c>
       <c r="K17" t="n">
-        <v>1012.362364459018</v>
+        <v>1012.362364459016</v>
       </c>
       <c r="L17" t="n">
-        <v>1806.24736263202</v>
+        <v>1806.247362632017</v>
       </c>
       <c r="M17" t="n">
-        <v>2261.185535677456</v>
+        <v>2261.185535677452</v>
       </c>
       <c r="N17" t="n">
-        <v>2854.308550287854</v>
+        <v>2854.308550287858</v>
       </c>
       <c r="O17" t="n">
-        <v>3658.8585111064</v>
+        <v>3658.858511106402</v>
       </c>
       <c r="P17" t="n">
-        <v>4307.848905836292</v>
+        <v>4307.848905836293</v>
       </c>
       <c r="Q17" t="n">
         <v>4717.991904648172</v>
@@ -5568,61 +5568,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>972.0997922012563</v>
+        <v>972.0997922012565</v>
       </c>
       <c r="C18" t="n">
-        <v>797.6467629201293</v>
+        <v>797.6467629201295</v>
       </c>
       <c r="D18" t="n">
-        <v>648.712353258878</v>
+        <v>648.7123532588782</v>
       </c>
       <c r="E18" t="n">
-        <v>489.4748982534225</v>
+        <v>489.4748982534227</v>
       </c>
       <c r="F18" t="n">
-        <v>342.9403402803075</v>
+        <v>342.9403402803076</v>
       </c>
       <c r="G18" t="n">
-        <v>206.332893276254</v>
+        <v>206.3328932762542</v>
       </c>
       <c r="H18" t="n">
-        <v>113.4711228862671</v>
+        <v>113.4711228862672</v>
       </c>
       <c r="I18" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J18" t="n">
-        <v>167.330291710181</v>
+        <v>292.1604166971853</v>
       </c>
       <c r="K18" t="n">
-        <v>366.9230224985485</v>
+        <v>534.6729529971373</v>
       </c>
       <c r="L18" t="n">
-        <v>681.622621471508</v>
+        <v>849.3725519700959</v>
       </c>
       <c r="M18" t="n">
-        <v>1068.219078224077</v>
+        <v>1235.969008722664</v>
       </c>
       <c r="N18" t="n">
-        <v>1479.456237748975</v>
+        <v>1647.206168247561</v>
       </c>
       <c r="O18" t="n">
-        <v>1893.886406218681</v>
+        <v>2001.18803231373</v>
       </c>
       <c r="P18" t="n">
-        <v>2473.933134434442</v>
+        <v>2265.956619575953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="R18" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="S18" t="n">
         <v>2467.028205012516</v>
       </c>
       <c r="T18" t="n">
-        <v>2273.40031546712</v>
+        <v>2273.400315467121</v>
       </c>
       <c r="U18" t="n">
         <v>2045.316393151755</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.584247101924</v>
+        <v>542.4941403666718</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6480641740171</v>
+        <v>393.2856269021278</v>
       </c>
       <c r="D19" t="n">
-        <v>633.6480641740171</v>
+        <v>243.168987489792</v>
       </c>
       <c r="E19" t="n">
-        <v>633.6480641740171</v>
+        <v>243.168987489792</v>
       </c>
       <c r="F19" t="n">
-        <v>486.7581166761067</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G19" t="n">
-        <v>318.8504278711025</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H19" t="n">
-        <v>170.8119189819666</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I19" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J19" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096029</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8675422238319</v>
+        <v>307.867542223831</v>
       </c>
       <c r="L19" t="n">
-        <v>594.5774814768329</v>
+        <v>594.5774814768315</v>
       </c>
       <c r="M19" t="n">
-        <v>907.2620358138208</v>
+        <v>907.262035813819</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.946266754869</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.897144214385</v>
+        <v>1488.897144214382</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.221745862617</v>
+        <v>1697.221745862614</v>
       </c>
       <c r="Q19" t="n">
-        <v>1758.019821576725</v>
+        <v>1758.019821576722</v>
       </c>
       <c r="R19" t="n">
-        <v>1758.019821576725</v>
+        <v>1758.019821576722</v>
       </c>
       <c r="S19" t="n">
-        <v>1562.763922598738</v>
+        <v>1758.019821576722</v>
       </c>
       <c r="T19" t="n">
-        <v>1562.763922598738</v>
+        <v>1535.377928651067</v>
       </c>
       <c r="U19" t="n">
-        <v>1273.649881969124</v>
+        <v>1535.377928651067</v>
       </c>
       <c r="V19" t="n">
-        <v>1273.649881969124</v>
+        <v>1280.69344044518</v>
       </c>
       <c r="W19" t="n">
-        <v>984.2327119321637</v>
+        <v>991.2762704082193</v>
       </c>
       <c r="X19" t="n">
-        <v>984.2327119321637</v>
+        <v>763.2867195102019</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.2327119321637</v>
+        <v>542.4941403666718</v>
       </c>
     </row>
     <row r="20">
@@ -5738,52 +5738,52 @@
         <v>1284.657842984363</v>
       </c>
       <c r="F20" t="n">
-        <v>873.6719381947551</v>
+        <v>873.6719381947552</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1428052453023</v>
+        <v>458.1428052453026</v>
       </c>
       <c r="H20" t="n">
-        <v>155.8822021854164</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I20" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J20" t="n">
-        <v>414.574770234251</v>
+        <v>414.5747702342506</v>
       </c>
       <c r="K20" t="n">
-        <v>1012.362364459018</v>
+        <v>1012.362364459017</v>
       </c>
       <c r="L20" t="n">
-        <v>1487.438622397151</v>
+        <v>1806.247362632018</v>
       </c>
       <c r="M20" t="n">
-        <v>2387.395193600492</v>
+        <v>2387.395193600496</v>
       </c>
       <c r="N20" t="n">
-        <v>2854.308550287853</v>
+        <v>2854.308550287857</v>
       </c>
       <c r="O20" t="n">
-        <v>3658.858511106399</v>
+        <v>3658.858511106402</v>
       </c>
       <c r="P20" t="n">
-        <v>4307.848905836291</v>
+        <v>4307.848905836293</v>
       </c>
       <c r="Q20" t="n">
-        <v>4717.991904648171</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R20" t="n">
-        <v>4813.951999594083</v>
+        <v>4813.951999594084</v>
       </c>
       <c r="S20" t="n">
-        <v>4693.254671942666</v>
+        <v>4693.254671942665</v>
       </c>
       <c r="T20" t="n">
         <v>4485.277795394187</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044467</v>
       </c>
       <c r="V20" t="n">
         <v>3900.647896700896</v>
@@ -5814,40 +5814,40 @@
         <v>648.712353258878</v>
       </c>
       <c r="E21" t="n">
-        <v>489.4748982534225</v>
+        <v>489.4748982534226</v>
       </c>
       <c r="F21" t="n">
-        <v>342.9403402803074</v>
+        <v>342.9403402803075</v>
       </c>
       <c r="G21" t="n">
-        <v>206.332893276254</v>
+        <v>206.3328932762541</v>
       </c>
       <c r="H21" t="n">
-        <v>113.471122886267</v>
+        <v>113.4711228862671</v>
       </c>
       <c r="I21" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J21" t="n">
-        <v>292.1604166971857</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K21" t="n">
-        <v>534.6729529971308</v>
+        <v>491.7531474855526</v>
       </c>
       <c r="L21" t="n">
-        <v>849.3725519700904</v>
+        <v>806.4527464585116</v>
       </c>
       <c r="M21" t="n">
-        <v>1235.96900872266</v>
+        <v>1193.04920321108</v>
       </c>
       <c r="N21" t="n">
-        <v>1647.206168247557</v>
+        <v>1604.286362735977</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.188032313728</v>
+        <v>1958.268226802147</v>
       </c>
       <c r="P21" t="n">
-        <v>2265.956619575951</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.004726840545</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>520.5137649483689</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="C22" t="n">
-        <v>393.2856269021278</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="D22" t="n">
-        <v>243.168987489792</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="E22" t="n">
-        <v>243.168987489792</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="F22" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G22" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H22" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I22" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J22" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8675422238319</v>
+        <v>307.8675422238315</v>
       </c>
       <c r="L22" t="n">
-        <v>594.5774814768329</v>
+        <v>594.5774814768322</v>
       </c>
       <c r="M22" t="n">
-        <v>907.2620358138208</v>
+        <v>907.2620358138198</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.897144214385</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.221745862618</v>
+        <v>1697.221745862616</v>
       </c>
       <c r="Q22" t="n">
-        <v>1758.019821576725</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="R22" t="n">
-        <v>1758.019821576725</v>
+        <v>1658.978465416878</v>
       </c>
       <c r="S22" t="n">
-        <v>1758.019821576725</v>
+        <v>1463.722566438891</v>
       </c>
       <c r="T22" t="n">
-        <v>1535.37792865107</v>
+        <v>1241.080673513236</v>
       </c>
       <c r="U22" t="n">
-        <v>1246.263888021456</v>
+        <v>951.966632883622</v>
       </c>
       <c r="V22" t="n">
-        <v>991.5793998155694</v>
+        <v>697.2821446777351</v>
       </c>
       <c r="W22" t="n">
-        <v>702.1622297786087</v>
+        <v>407.8649746407745</v>
       </c>
       <c r="X22" t="n">
-        <v>702.1622297786087</v>
+        <v>179.8754237427572</v>
       </c>
       <c r="Y22" t="n">
-        <v>702.1622297786087</v>
+        <v>179.8754237427572</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>2397.674311129769</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.711794189357</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D23" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582608</v>
       </c>
       <c r="E23" t="n">
         <v>1284.657842984363</v>
       </c>
       <c r="F23" t="n">
-        <v>873.6719381947549</v>
+        <v>873.6719381947555</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1428052453022</v>
+        <v>458.142805245303</v>
       </c>
       <c r="H23" t="n">
-        <v>155.8822021854164</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I23" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J23" t="n">
-        <v>414.574770234251</v>
+        <v>414.5747702342506</v>
       </c>
       <c r="K23" t="n">
-        <v>1012.362364459018</v>
+        <v>1012.362364459017</v>
       </c>
       <c r="L23" t="n">
-        <v>1806.24736263202</v>
+        <v>1806.247362632018</v>
       </c>
       <c r="M23" t="n">
-        <v>2261.185535677457</v>
+        <v>2261.185535677454</v>
       </c>
       <c r="N23" t="n">
-        <v>2854.308550287854</v>
+        <v>2854.308550287857</v>
       </c>
       <c r="O23" t="n">
-        <v>3658.8585111064</v>
+        <v>3658.858511106402</v>
       </c>
       <c r="P23" t="n">
-        <v>4307.848905836292</v>
+        <v>4307.848905836293</v>
       </c>
       <c r="Q23" t="n">
         <v>4717.991904648172</v>
@@ -6014,7 +6014,7 @@
         <v>4813.951999594084</v>
       </c>
       <c r="S23" t="n">
-        <v>4693.254671942667</v>
+        <v>4693.254671942666</v>
       </c>
       <c r="T23" t="n">
         <v>4485.277795394188</v>
@@ -6051,40 +6051,40 @@
         <v>648.712353258878</v>
       </c>
       <c r="E24" t="n">
-        <v>489.4748982534225</v>
+        <v>489.4748982534226</v>
       </c>
       <c r="F24" t="n">
-        <v>342.9403402803074</v>
+        <v>342.9403402803075</v>
       </c>
       <c r="G24" t="n">
-        <v>206.332893276254</v>
+        <v>206.3328932762541</v>
       </c>
       <c r="H24" t="n">
-        <v>113.471122886267</v>
+        <v>113.4711228862671</v>
       </c>
       <c r="I24" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J24" t="n">
-        <v>292.1604166971857</v>
+        <v>167.3302917101807</v>
       </c>
       <c r="K24" t="n">
-        <v>534.6729529971308</v>
+        <v>366.9230224985479</v>
       </c>
       <c r="L24" t="n">
-        <v>849.3725519700904</v>
+        <v>1048.754563321932</v>
       </c>
       <c r="M24" t="n">
-        <v>1235.96900872266</v>
+        <v>1435.3510200745</v>
       </c>
       <c r="N24" t="n">
-        <v>1647.206168247557</v>
+        <v>1846.588179599397</v>
       </c>
       <c r="O24" t="n">
-        <v>2001.188032313728</v>
+        <v>2200.570043665567</v>
       </c>
       <c r="P24" t="n">
-        <v>2265.956619575951</v>
+        <v>2465.33863092779</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.004726840545</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>797.8696852123613</v>
+        <v>730.1294986350388</v>
       </c>
       <c r="C25" t="n">
-        <v>628.9335022844544</v>
+        <v>561.1933157071319</v>
       </c>
       <c r="D25" t="n">
-        <v>478.8168628721186</v>
+        <v>411.0766762947961</v>
       </c>
       <c r="E25" t="n">
-        <v>478.8168628721186</v>
+        <v>411.0766762947961</v>
       </c>
       <c r="F25" t="n">
-        <v>478.8168628721186</v>
+        <v>264.1867287968857</v>
       </c>
       <c r="G25" t="n">
-        <v>310.9091740671143</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H25" t="n">
-        <v>162.8706651779784</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I25" t="n">
-        <v>96.27903999188166</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="J25" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8675422238322</v>
+        <v>307.8675422238315</v>
       </c>
       <c r="L25" t="n">
-        <v>594.5774814768332</v>
+        <v>594.5774814768322</v>
       </c>
       <c r="M25" t="n">
-        <v>907.2620358138211</v>
+        <v>907.2620358138198</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.946266754872</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.897144214385</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.221745862618</v>
+        <v>1697.221745862616</v>
       </c>
       <c r="Q25" t="n">
-        <v>1758.019821576726</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="R25" t="n">
-        <v>1758.019821576726</v>
+        <v>1658.978465416877</v>
       </c>
       <c r="S25" t="n">
-        <v>1562.763922598739</v>
+        <v>1658.978465416877</v>
       </c>
       <c r="T25" t="n">
-        <v>1562.763922598739</v>
+        <v>1658.978465416877</v>
       </c>
       <c r="U25" t="n">
-        <v>1562.763922598739</v>
+        <v>1369.864424787263</v>
       </c>
       <c r="V25" t="n">
-        <v>1308.079434392852</v>
+        <v>1201.195133502239</v>
       </c>
       <c r="W25" t="n">
-        <v>1018.662264355891</v>
+        <v>911.7779634652785</v>
       </c>
       <c r="X25" t="n">
-        <v>1018.662264355891</v>
+        <v>911.7779634652785</v>
       </c>
       <c r="Y25" t="n">
-        <v>797.8696852123613</v>
+        <v>911.7779634652785</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6239,37 +6239,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6294,31 +6294,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.7209910686896</v>
+        <v>559.3002584566049</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7848081407827</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D28" t="n">
-        <v>388.668168728447</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>388.668168728447</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6388,10 +6388,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230348</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>1130.725466446211</v>
       </c>
       <c r="X28" t="n">
-        <v>895.1493900894827</v>
+        <v>961.7413024303747</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.7209910686896</v>
+        <v>740.9487232868446</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6467,13 +6467,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>822.6328654632896</v>
+        <v>560.8310435707792</v>
       </c>
       <c r="C31" t="n">
-        <v>653.6966825353827</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D31" t="n">
-        <v>653.6966825353827</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6625,16 +6625,16 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1742.480630372037</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1742.480630372037</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1742.480630372037</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>1742.480630372037</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W31" t="n">
-        <v>1453.063460335077</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X31" t="n">
-        <v>1225.073909437059</v>
+        <v>895.149390089482</v>
       </c>
       <c r="Y31" t="n">
-        <v>1004.281330293529</v>
+        <v>742.479508401019</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301114</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177756</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353826</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G34" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6886,22 +6886,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1523.103642431788</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V34" t="n">
-        <v>1523.103642431788</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W34" t="n">
-        <v>1523.103642431788</v>
+        <v>1232.805708946378</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.103642431788</v>
+        <v>1004.816158048361</v>
       </c>
       <c r="Y34" t="n">
-        <v>1302.311063288258</v>
+        <v>784.0235789048305</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -7008,19 +7008,19 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.9035048802829</v>
+        <v>787.5808954301442</v>
       </c>
       <c r="C37" t="n">
-        <v>667.3614781777667</v>
+        <v>666.0388687276275</v>
       </c>
       <c r="D37" t="n">
-        <v>564.6389949908217</v>
+        <v>563.3163855406819</v>
       </c>
       <c r="E37" t="n">
-        <v>464.1200576338194</v>
+        <v>464.1200576338219</v>
       </c>
       <c r="F37" t="n">
-        <v>364.6242663612998</v>
+        <v>364.6242663613017</v>
       </c>
       <c r="G37" t="n">
-        <v>244.3155859614098</v>
+        <v>244.3155859614109</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4925554046583</v>
+        <v>145.4925554046589</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1346794118355</v>
+        <v>187.134679411835</v>
       </c>
       <c r="K37" t="n">
-        <v>437.5728748772173</v>
+        <v>437.5728748772162</v>
       </c>
       <c r="L37" t="n">
-        <v>800.583685842219</v>
+        <v>800.5836858422174</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.191743958273</v>
+        <v>1191.191743958271</v>
       </c>
       <c r="N37" t="n">
-        <v>1579.051133180644</v>
+        <v>1579.051133180641</v>
       </c>
       <c r="O37" t="n">
-        <v>1924.831744617562</v>
+        <v>1924.831744617559</v>
       </c>
       <c r="P37" t="n">
-        <v>2203.890257567728</v>
+        <v>2203.890257567723</v>
       </c>
       <c r="Q37" t="n">
-        <v>2327.951566236748</v>
+        <v>2327.951566236743</v>
       </c>
       <c r="R37" t="n">
-        <v>2285.515265219666</v>
+        <v>2285.515265219661</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.223537271883</v>
+        <v>2141.223537271878</v>
       </c>
       <c r="T37" t="n">
-        <v>1966.8510780668</v>
+        <v>1966.851078066794</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.142367417834</v>
+        <v>1725.142367417828</v>
       </c>
       <c r="V37" t="n">
-        <v>1517.852035437338</v>
+        <v>1517.852035437331</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.829021625768</v>
+        <v>1275.829021625761</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.556236403271</v>
+        <v>1095.233626953134</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.1578134851318</v>
+        <v>921.8352040349937</v>
       </c>
     </row>
     <row r="38">
@@ -7178,13 +7178,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821506</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
         <v>364.4578361932524</v>
@@ -7324,7 +7324,7 @@
         <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7366,16 +7366,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="41">
@@ -7409,46 +7409,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416725</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430904</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932533</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
@@ -7570,31 +7570,31 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
         <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7603,7 +7603,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
         <v>1276.596863849073</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036725</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.925993846824</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2120.457898518748</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7728,10 +7728,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7837,19 +7837,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,13 +8696,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>127.4845029525615</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>70.93775980333203</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>253.4306266364401</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.681316673382071</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>15.16213830202233</v>
+        <v>15.16213830202258</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>127.4845029525614</v>
+        <v>127.4845029525711</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>43.35333890058382</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>169.444374241</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>15.16213830202233</v>
+        <v>15.16213830202258</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>127.4845029525623</v>
+        <v>127.4845029525711</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>43.35333890059098</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>61.0588933369043</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>15.16213830202233</v>
+        <v>15.16213830202258</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>95.63218401017861</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>127.4845029525678</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>43.35333890058334</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>43.35333890058769</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>15.1621383020223</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>127.4845029525613</v>
+        <v>127.4845029525678</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>43.35333890058334</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>8.681316673386561</v>
       </c>
       <c r="R24" t="n">
-        <v>15.1621383020223</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10115,16 +10115,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>29.61882225792135</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>138.5521232938337</v>
       </c>
       <c r="G13" t="n">
         <v>166.2286119169542</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I13" t="n">
-        <v>102.451279504558</v>
+        <v>102.4512795045581</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.05094259824696</v>
+        <v>98.05094259824712</v>
       </c>
       <c r="S13" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>64.29843196992164</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>147.8458183252842</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.451279504558</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>193.3033399882067</v>
       </c>
       <c r="T16" t="n">
-        <v>220.4154739963984</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V16" t="n">
-        <v>231.7131687518964</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>19.53039276872902</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I19" t="n">
-        <v>28.66372930437384</v>
+        <v>102.4512795045581</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.05094259824696</v>
+        <v>98.05094259824712</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T19" t="n">
-        <v>220.4154739963984</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>41.29096443284909</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.66062810956521</v>
       </c>
       <c r="G22" t="n">
         <v>166.2286119169542</v>
@@ -24145,7 +24145,7 @@
         <v>146.5581238002446</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4512795045579</v>
+        <v>102.451279504558</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.05094259824696</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I25" t="n">
-        <v>36.52557057032223</v>
+        <v>102.451279504558</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.05094259824696</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T25" t="n">
         <v>220.4154739963984</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>85.15504495165382</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>58.41533301335943</v>
       </c>
       <c r="Y28" t="n">
-        <v>33.03053832150974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>66.97697062614951</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>67.44147048051647</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,19 +25126,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>47.07343810086877</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>231.6762366812879</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.309383355641472</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.309383355628718</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>932536.7969920724</v>
+        <v>932536.7969920725</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>932536.7969920725</v>
+        <v>932536.7969920726</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>932536.7969920724</v>
+        <v>932536.7969920725</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>932536.7969920724</v>
+        <v>932536.7969920725</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>932536.7969920726</v>
+        <v>932536.7969920725</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>930643.6882295713</v>
+        <v>930643.6882295712</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>930643.6882295713</v>
+        <v>930643.6882295714</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>961517.4747528207</v>
+        <v>961517.4747528203</v>
       </c>
     </row>
     <row r="14">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185696</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185697</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185699</v>
-      </c>
       <c r="E2" t="n">
-        <v>473349.0558343158</v>
+        <v>473349.0558343157</v>
       </c>
       <c r="F2" t="n">
-        <v>473349.0558343159</v>
+        <v>473349.055834316</v>
       </c>
       <c r="G2" t="n">
-        <v>473349.0558343159</v>
+        <v>473349.055834316</v>
       </c>
       <c r="H2" t="n">
-        <v>473349.0558343159</v>
+        <v>473349.0558343157</v>
       </c>
       <c r="I2" t="n">
-        <v>473349.0558343159</v>
+        <v>473349.0558343157</v>
       </c>
       <c r="J2" t="n">
         <v>476498.1442643798</v>
@@ -26341,19 +26341,19 @@
         <v>476498.1442643797</v>
       </c>
       <c r="L2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="M2" t="n">
-        <v>492606.206798249</v>
+        <v>492606.2067982481</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185694</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185693</v>
+        <v>492625.0619185694</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639703.3804282966</v>
+        <v>639703.3804282951</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.093556521591381e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257274.6877527445</v>
+        <v>257274.6877527454</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169415.1097376941</v>
+        <v>169415.1097376938</v>
       </c>
       <c r="N3" t="n">
-        <v>43.93756436460308</v>
+        <v>43.93756436500666</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>26074.75651488294</v>
+        <v>26074.75651488306</v>
       </c>
       <c r="F4" t="n">
-        <v>26074.75651488297</v>
+        <v>26074.75651488309</v>
       </c>
       <c r="G4" t="n">
-        <v>26074.75651488297</v>
+        <v>26074.75651488311</v>
       </c>
       <c r="H4" t="n">
-        <v>26074.75651488296</v>
+        <v>26074.75651488305</v>
       </c>
       <c r="I4" t="n">
-        <v>26074.75651488297</v>
+        <v>26074.75651488305</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
@@ -26448,16 +26448,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33587.58123699942</v>
+        <v>33587.58123699928</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740894</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="F5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="G5" t="n">
-        <v>94477.49060940047</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="H5" t="n">
-        <v>94477.49060940047</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="I5" t="n">
-        <v>94477.49060940047</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165121</v>
+        <v>-363550.5822165122</v>
       </c>
       <c r="C6" t="n">
         <v>226417.2969980323</v>
@@ -26528,40 +26528,40 @@
         <v>226417.2969980325</v>
       </c>
       <c r="E6" t="n">
-        <v>-286906.5717182643</v>
+        <v>-286986.8884102806</v>
       </c>
       <c r="F6" t="n">
-        <v>352796.8087100325</v>
+        <v>352716.4920180147</v>
       </c>
       <c r="G6" t="n">
-        <v>352796.8087100325</v>
+        <v>352716.4920180147</v>
       </c>
       <c r="H6" t="n">
-        <v>352796.8087100325</v>
+        <v>352716.4920180139</v>
       </c>
       <c r="I6" t="n">
-        <v>352796.8087100325</v>
+        <v>352716.4920180144</v>
       </c>
       <c r="J6" t="n">
-        <v>104691.4459387317</v>
+        <v>104624.250448505</v>
       </c>
       <c r="K6" t="n">
-        <v>361966.1336914761</v>
+        <v>361898.9382012503</v>
       </c>
       <c r="L6" t="n">
-        <v>361966.1336914762</v>
+        <v>361898.9382012503</v>
       </c>
       <c r="M6" t="n">
-        <v>189275.4620433266</v>
+        <v>189275.3834803249</v>
       </c>
       <c r="N6" t="n">
-        <v>358642.8000426941</v>
+        <v>358642.8000426935</v>
       </c>
       <c r="O6" t="n">
-        <v>358686.7376070586</v>
+        <v>358686.7376070584</v>
       </c>
       <c r="P6" t="n">
-        <v>358686.7376070582</v>
+        <v>358686.7376070583</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,22 +26741,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>977.3128539252477</v>
+        <v>977.3128539252458</v>
       </c>
       <c r="F3" t="n">
-        <v>977.3128539252477</v>
+        <v>977.3128539252458</v>
       </c>
       <c r="G3" t="n">
-        <v>977.3128539252477</v>
+        <v>977.3128539252458</v>
       </c>
       <c r="H3" t="n">
-        <v>977.3128539252479</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="I3" t="n">
-        <v>977.3128539252479</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05492195545575385</v>
+        <v>0.05492195545625833</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.5691897081612</v>
+        <v>599.5691897081591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.4638466680505</v>
+        <v>112.4638466680517</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2007271439651</v>
+        <v>529.2007271439653</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439651</v>
+        <v>529.2007271439653</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439651</v>
+        <v>529.2007271439653</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>156.0967696151113</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>149.1081259408882</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>105.6056781286107</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352324</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>235.6092307793423</v>
       </c>
       <c r="G5" t="n">
-        <v>371.3865344555037</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>64.97345050525871</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>160.0021078858324</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.4555554569607</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>116.1240855196265</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.168426311850774e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="C37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="D37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="E37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="F37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="G37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="H37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="I37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="J37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="K37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="L37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="M37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="N37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="O37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="P37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="R37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="S37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="T37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="U37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="V37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="W37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="X37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.92021466313682</v>
+        <v>46.92021466313629</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928895895176872</v>
+        <v>3.928895895176864</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23680508648015</v>
+        <v>40.23680508648008</v>
       </c>
       <c r="I11" t="n">
-        <v>151.4687589988065</v>
+        <v>151.4687589988062</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4601279832684</v>
+        <v>333.4601279832677</v>
       </c>
       <c r="K11" t="n">
-        <v>499.7702912261055</v>
+        <v>499.7702912261045</v>
       </c>
       <c r="L11" t="n">
-        <v>620.0092389781248</v>
+        <v>620.0092389781236</v>
       </c>
       <c r="M11" t="n">
-        <v>689.8797413539764</v>
+        <v>689.8797413539751</v>
       </c>
       <c r="N11" t="n">
-        <v>701.0427168161478</v>
+        <v>701.0427168161465</v>
       </c>
       <c r="O11" t="n">
-        <v>661.9747582584828</v>
+        <v>661.9747582584814</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9801408463037</v>
+        <v>564.9801408463026</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2765566002818</v>
+        <v>424.2765566002809</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7985067754044</v>
+        <v>246.798506775404</v>
       </c>
       <c r="S11" t="n">
-        <v>89.52971521134307</v>
+        <v>89.52971521134289</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19874178113677</v>
+        <v>17.19874178113673</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3143116716141497</v>
+        <v>0.3143116716141491</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.102144629197703</v>
+        <v>2.102144629197698</v>
       </c>
       <c r="H12" t="n">
-        <v>20.3022915504094</v>
+        <v>20.30229155040935</v>
       </c>
       <c r="I12" t="n">
-        <v>72.37647078597355</v>
+        <v>72.37647078597341</v>
       </c>
       <c r="J12" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962615</v>
       </c>
       <c r="K12" t="n">
-        <v>339.450257952508</v>
+        <v>339.4502579525073</v>
       </c>
       <c r="L12" t="n">
-        <v>456.4327625808434</v>
+        <v>456.4327625808425</v>
       </c>
       <c r="M12" t="n">
-        <v>532.6355053892599</v>
+        <v>532.6355053892589</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7327823105026</v>
+        <v>546.7327823105014</v>
       </c>
       <c r="O12" t="n">
-        <v>500.1536828951218</v>
+        <v>500.1536828951208</v>
       </c>
       <c r="P12" t="n">
-        <v>401.4174248509192</v>
+        <v>401.4174248509185</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.3369179305699</v>
+        <v>268.3369179305694</v>
       </c>
       <c r="R12" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619414</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04641449408889</v>
+        <v>39.04641449408881</v>
       </c>
       <c r="T12" t="n">
-        <v>8.473118044880211</v>
+        <v>8.473118044880193</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630065</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.762367441504545</v>
+        <v>1.762367441504541</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66904870719497</v>
+        <v>15.66904870719493</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99919542270033</v>
+        <v>52.99919542270023</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143711</v>
       </c>
       <c r="K13" t="n">
-        <v>204.7550536584371</v>
+        <v>204.7550536584367</v>
       </c>
       <c r="L13" t="n">
-        <v>262.0159739851394</v>
+        <v>262.0159739851389</v>
       </c>
       <c r="M13" t="n">
-        <v>276.2591072169351</v>
+        <v>276.2591072169346</v>
       </c>
       <c r="N13" t="n">
-        <v>269.690283116782</v>
+        <v>269.6902831167815</v>
       </c>
       <c r="O13" t="n">
-        <v>249.1026270955698</v>
+        <v>249.1026270955693</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1503312888769</v>
+        <v>213.1503312888765</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5742409427124</v>
+        <v>147.5742409427121</v>
       </c>
       <c r="R13" t="n">
-        <v>79.24244877892252</v>
+        <v>79.24244877892237</v>
       </c>
       <c r="S13" t="n">
-        <v>30.71325804876556</v>
+        <v>30.7132580487655</v>
       </c>
       <c r="T13" t="n">
-        <v>7.530115431883053</v>
+        <v>7.530115431883039</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09612913317297529</v>
+        <v>0.0961291331729751</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928895895176872</v>
+        <v>3.928895895176864</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23680508648015</v>
+        <v>40.23680508648008</v>
       </c>
       <c r="I14" t="n">
-        <v>151.4687589988065</v>
+        <v>151.4687589988062</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4601279832684</v>
+        <v>333.4601279832677</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7702912261055</v>
+        <v>499.7702912261045</v>
       </c>
       <c r="L14" t="n">
-        <v>620.0092389781248</v>
+        <v>620.0092389781236</v>
       </c>
       <c r="M14" t="n">
-        <v>689.8797413539764</v>
+        <v>689.8797413539751</v>
       </c>
       <c r="N14" t="n">
-        <v>701.0427168161478</v>
+        <v>701.0427168161465</v>
       </c>
       <c r="O14" t="n">
-        <v>661.9747582584828</v>
+        <v>661.9747582584814</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9801408463037</v>
+        <v>564.9801408463026</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2765566002818</v>
+        <v>424.2765566002809</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7985067754044</v>
+        <v>246.798506775404</v>
       </c>
       <c r="S14" t="n">
-        <v>89.52971521134307</v>
+        <v>89.52971521134289</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19874178113677</v>
+        <v>17.19874178113673</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3143116716141497</v>
+        <v>0.3143116716141491</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.102144629197703</v>
+        <v>2.102144629197698</v>
       </c>
       <c r="H15" t="n">
-        <v>20.3022915504094</v>
+        <v>20.30229155040935</v>
       </c>
       <c r="I15" t="n">
-        <v>72.37647078597355</v>
+        <v>72.37647078597341</v>
       </c>
       <c r="J15" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962615</v>
       </c>
       <c r="K15" t="n">
-        <v>339.450257952508</v>
+        <v>339.4502579525073</v>
       </c>
       <c r="L15" t="n">
-        <v>456.4327625808434</v>
+        <v>456.4327625808425</v>
       </c>
       <c r="M15" t="n">
-        <v>532.6355053892599</v>
+        <v>532.6355053892589</v>
       </c>
       <c r="N15" t="n">
-        <v>546.7327823105026</v>
+        <v>546.7327823105014</v>
       </c>
       <c r="O15" t="n">
-        <v>500.1536828951218</v>
+        <v>500.1536828951208</v>
       </c>
       <c r="P15" t="n">
-        <v>401.4174248509192</v>
+        <v>401.4174248509185</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.3369179305699</v>
+        <v>268.3369179305694</v>
       </c>
       <c r="R15" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619414</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04641449408889</v>
+        <v>39.04641449408881</v>
       </c>
       <c r="T15" t="n">
-        <v>8.473118044880211</v>
+        <v>8.473118044880193</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630065</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762367441504545</v>
+        <v>1.762367441504541</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66904870719497</v>
+        <v>15.66904870719493</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99919542270033</v>
+        <v>52.99919542270023</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143711</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7550536584371</v>
+        <v>204.7550536584367</v>
       </c>
       <c r="L16" t="n">
-        <v>262.0159739851394</v>
+        <v>262.0159739851389</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2591072169351</v>
+        <v>276.2591072169346</v>
       </c>
       <c r="N16" t="n">
-        <v>269.690283116782</v>
+        <v>269.6902831167815</v>
       </c>
       <c r="O16" t="n">
-        <v>249.1026270955698</v>
+        <v>249.1026270955693</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1503312888769</v>
+        <v>213.1503312888765</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5742409427124</v>
+        <v>147.5742409427121</v>
       </c>
       <c r="R16" t="n">
-        <v>79.24244877892252</v>
+        <v>79.24244877892237</v>
       </c>
       <c r="S16" t="n">
-        <v>30.71325804876556</v>
+        <v>30.7132580487655</v>
       </c>
       <c r="T16" t="n">
-        <v>7.530115431883053</v>
+        <v>7.530115431883039</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09612913317297529</v>
+        <v>0.0961291331729751</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928895895176872</v>
+        <v>3.928895895176864</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23680508648015</v>
+        <v>40.23680508648008</v>
       </c>
       <c r="I17" t="n">
-        <v>151.4687589988065</v>
+        <v>151.4687589988062</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4601279832684</v>
+        <v>333.4601279832677</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7702912261055</v>
+        <v>499.7702912261045</v>
       </c>
       <c r="L17" t="n">
-        <v>620.0092389781248</v>
+        <v>620.0092389781236</v>
       </c>
       <c r="M17" t="n">
-        <v>689.8797413539764</v>
+        <v>689.8797413539751</v>
       </c>
       <c r="N17" t="n">
-        <v>701.0427168161478</v>
+        <v>701.0427168161465</v>
       </c>
       <c r="O17" t="n">
-        <v>661.9747582584828</v>
+        <v>661.9747582584814</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9801408463037</v>
+        <v>564.9801408463026</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2765566002818</v>
+        <v>424.2765566002809</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7985067754044</v>
+        <v>246.798506775404</v>
       </c>
       <c r="S17" t="n">
-        <v>89.52971521134307</v>
+        <v>89.52971521134289</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19874178113677</v>
+        <v>17.19874178113673</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3143116716141497</v>
+        <v>0.3143116716141491</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.102144629197703</v>
+        <v>2.102144629197698</v>
       </c>
       <c r="H18" t="n">
-        <v>20.3022915504094</v>
+        <v>20.30229155040935</v>
       </c>
       <c r="I18" t="n">
-        <v>72.37647078597355</v>
+        <v>72.37647078597341</v>
       </c>
       <c r="J18" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962615</v>
       </c>
       <c r="K18" t="n">
-        <v>339.450257952508</v>
+        <v>339.4502579525073</v>
       </c>
       <c r="L18" t="n">
-        <v>456.4327625808434</v>
+        <v>456.4327625808425</v>
       </c>
       <c r="M18" t="n">
-        <v>532.6355053892599</v>
+        <v>532.6355053892589</v>
       </c>
       <c r="N18" t="n">
-        <v>546.7327823105026</v>
+        <v>546.7327823105014</v>
       </c>
       <c r="O18" t="n">
-        <v>500.1536828951218</v>
+        <v>500.1536828951208</v>
       </c>
       <c r="P18" t="n">
-        <v>401.4174248509192</v>
+        <v>401.4174248509185</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.3369179305699</v>
+        <v>268.3369179305694</v>
       </c>
       <c r="R18" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619414</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04641449408889</v>
+        <v>39.04641449408881</v>
       </c>
       <c r="T18" t="n">
-        <v>8.473118044880211</v>
+        <v>8.473118044880193</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630065</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762367441504545</v>
+        <v>1.762367441504541</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66904870719497</v>
+        <v>15.66904870719493</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99919542270033</v>
+        <v>52.99919542270023</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143711</v>
       </c>
       <c r="K19" t="n">
-        <v>204.7550536584371</v>
+        <v>204.7550536584367</v>
       </c>
       <c r="L19" t="n">
-        <v>262.0159739851394</v>
+        <v>262.0159739851389</v>
       </c>
       <c r="M19" t="n">
-        <v>276.2591072169351</v>
+        <v>276.2591072169346</v>
       </c>
       <c r="N19" t="n">
-        <v>269.690283116782</v>
+        <v>269.6902831167815</v>
       </c>
       <c r="O19" t="n">
-        <v>249.1026270955698</v>
+        <v>249.1026270955693</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1503312888769</v>
+        <v>213.1503312888765</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5742409427124</v>
+        <v>147.5742409427121</v>
       </c>
       <c r="R19" t="n">
-        <v>79.24244877892252</v>
+        <v>79.24244877892237</v>
       </c>
       <c r="S19" t="n">
-        <v>30.71325804876556</v>
+        <v>30.7132580487655</v>
       </c>
       <c r="T19" t="n">
-        <v>7.530115431883053</v>
+        <v>7.530115431883039</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09612913317297529</v>
+        <v>0.0961291331729751</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928895895176873</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23680508648016</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I20" t="n">
-        <v>151.4687589988065</v>
+        <v>151.4687589988064</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4601279832684</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7702912261055</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L20" t="n">
-        <v>620.0092389781249</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M20" t="n">
-        <v>689.8797413539766</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N20" t="n">
-        <v>701.042716816148</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O20" t="n">
-        <v>661.9747582584829</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9801408463037</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2765566002818</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7985067754045</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S20" t="n">
-        <v>89.52971521134307</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19874178113677</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3143116716141497</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.102144629197703</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H21" t="n">
-        <v>20.3022915504094</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I21" t="n">
-        <v>72.37647078597355</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J21" t="n">
-        <v>198.606567796262</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K21" t="n">
-        <v>339.450257952508</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L21" t="n">
-        <v>456.4327625808434</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M21" t="n">
-        <v>532.6355053892601</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N21" t="n">
-        <v>546.7327823105026</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O21" t="n">
-        <v>500.1536828951219</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P21" t="n">
-        <v>401.4174248509193</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.33691793057</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R21" t="n">
-        <v>130.5173656619417</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04641449408889</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T21" t="n">
-        <v>8.473118044880211</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762367441504545</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66904870719497</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99919542270034</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J22" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K22" t="n">
-        <v>204.7550536584371</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L22" t="n">
-        <v>262.0159739851394</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M22" t="n">
-        <v>276.2591072169351</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6902831167821</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O22" t="n">
-        <v>249.1026270955698</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1503312888769</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5742409427124</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R22" t="n">
-        <v>79.24244877892252</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S22" t="n">
-        <v>30.71325804876556</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T22" t="n">
-        <v>7.530115431883054</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09612913317297529</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928895895176873</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23680508648016</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I23" t="n">
-        <v>151.4687589988065</v>
+        <v>151.4687589988064</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4601279832684</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7702912261055</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L23" t="n">
-        <v>620.0092389781249</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M23" t="n">
-        <v>689.8797413539766</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N23" t="n">
-        <v>701.042716816148</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O23" t="n">
-        <v>661.9747582584829</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9801408463037</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2765566002818</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7985067754045</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S23" t="n">
-        <v>89.52971521134307</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19874178113677</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3143116716141497</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.102144629197703</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H24" t="n">
-        <v>20.3022915504094</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I24" t="n">
-        <v>72.37647078597355</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J24" t="n">
-        <v>198.606567796262</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K24" t="n">
-        <v>339.450257952508</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L24" t="n">
-        <v>456.4327625808434</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M24" t="n">
-        <v>532.6355053892601</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N24" t="n">
-        <v>546.7327823105026</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O24" t="n">
-        <v>500.1536828951219</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P24" t="n">
-        <v>401.4174248509193</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.33691793057</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R24" t="n">
-        <v>130.5173656619417</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04641449408889</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T24" t="n">
-        <v>8.473118044880211</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762367441504545</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66904870719497</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99919542270034</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J25" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K25" t="n">
-        <v>204.7550536584371</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L25" t="n">
-        <v>262.0159739851394</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M25" t="n">
-        <v>276.2591072169351</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6902831167821</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O25" t="n">
-        <v>249.1026270955698</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1503312888769</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5742409427124</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R25" t="n">
-        <v>79.24244877892252</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S25" t="n">
-        <v>30.71325804876556</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T25" t="n">
-        <v>7.530115431883054</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09612913317297529</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>321.5108386286558</v>
+        <v>321.5108386286552</v>
       </c>
       <c r="K11" t="n">
-        <v>603.8258527522896</v>
+        <v>603.8258527522887</v>
       </c>
       <c r="L11" t="n">
-        <v>801.904038558588</v>
+        <v>801.9040385585868</v>
       </c>
       <c r="M11" t="n">
-        <v>587.0180110792652</v>
+        <v>459.5335081267024</v>
       </c>
       <c r="N11" t="n">
-        <v>471.6296532195569</v>
+        <v>908.9765776315397</v>
       </c>
       <c r="O11" t="n">
-        <v>812.6767280995414</v>
+        <v>502.8143066401267</v>
       </c>
       <c r="P11" t="n">
-        <v>655.5458532625169</v>
+        <v>655.5458532625157</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.285857385737</v>
+        <v>414.2858573857361</v>
       </c>
       <c r="R11" t="n">
-        <v>96.92938883425475</v>
+        <v>96.92938883425427</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.76894112959525</v>
+        <v>197.8599764700037</v>
       </c>
       <c r="K12" t="n">
-        <v>201.608818978149</v>
+        <v>201.6088189781483</v>
       </c>
       <c r="L12" t="n">
-        <v>688.7187281044284</v>
+        <v>317.8783828009683</v>
       </c>
       <c r="M12" t="n">
-        <v>390.5014714672416</v>
+        <v>643.9320981036807</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3910702271693</v>
+        <v>415.3910702271681</v>
       </c>
       <c r="O12" t="n">
-        <v>357.5574384506774</v>
+        <v>357.5574384506764</v>
       </c>
       <c r="P12" t="n">
-        <v>267.443017436589</v>
+        <v>267.4430174365882</v>
       </c>
       <c r="Q12" t="n">
-        <v>137.0364605179305</v>
+        <v>128.3551438445479</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.24019799769854</v>
+        <v>31.2401979976983</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4855618325554</v>
+        <v>182.4855618325538</v>
       </c>
       <c r="L13" t="n">
-        <v>289.6059992454556</v>
+        <v>289.605999245455</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8429841787757</v>
+        <v>315.8429841787752</v>
       </c>
       <c r="N13" t="n">
-        <v>313.8224554960107</v>
+        <v>313.8224554960101</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6877550096094</v>
+        <v>273.687755009609</v>
       </c>
       <c r="P13" t="n">
-        <v>210.4288905537704</v>
+        <v>210.4288905537699</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.41219769101802</v>
+        <v>61.41219769101774</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>321.5108386286558</v>
+        <v>321.5108386286552</v>
       </c>
       <c r="K14" t="n">
-        <v>603.8258527522896</v>
+        <v>603.8258527522887</v>
       </c>
       <c r="L14" t="n">
-        <v>801.904038558588</v>
+        <v>801.9040385585868</v>
       </c>
       <c r="M14" t="n">
-        <v>459.5335081267037</v>
+        <v>459.5335081267024</v>
       </c>
       <c r="N14" t="n">
-        <v>599.1141561721183</v>
+        <v>599.1141561721266</v>
       </c>
       <c r="O14" t="n">
-        <v>812.6767280995414</v>
+        <v>812.67672809954</v>
       </c>
       <c r="P14" t="n">
-        <v>655.5458532625169</v>
+        <v>655.5458532625157</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.285857385737</v>
+        <v>414.2858573857361</v>
       </c>
       <c r="R14" t="n">
-        <v>96.92938883425475</v>
+        <v>96.92938883425427</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>197.8599764700041</v>
+        <v>71.76894112959485</v>
       </c>
       <c r="K15" t="n">
-        <v>244.9621578787329</v>
+        <v>201.6088189781483</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8783828009692</v>
+        <v>317.8783828009683</v>
       </c>
       <c r="M15" t="n">
-        <v>390.5014714672416</v>
+        <v>390.5014714672406</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3910702271693</v>
+        <v>584.8354444681681</v>
       </c>
       <c r="O15" t="n">
-        <v>357.5574384506774</v>
+        <v>357.5574384506764</v>
       </c>
       <c r="P15" t="n">
-        <v>267.443017436589</v>
+        <v>267.4430174365882</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.4324315803975</v>
+        <v>338.432431580397</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.24019799769854</v>
+        <v>31.2401979976983</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4855618325542</v>
+        <v>182.4855618325538</v>
       </c>
       <c r="L16" t="n">
-        <v>289.6059992454556</v>
+        <v>289.605999245455</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8429841787757</v>
+        <v>315.8429841787752</v>
       </c>
       <c r="N16" t="n">
-        <v>313.8224554960107</v>
+        <v>313.8224554960101</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6877550096094</v>
+        <v>273.687755009609</v>
       </c>
       <c r="P16" t="n">
-        <v>210.4288905537704</v>
+        <v>210.4288905537699</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.41219769101802</v>
+        <v>61.41219769101774</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>321.5108386286558</v>
+        <v>321.5108386286552</v>
       </c>
       <c r="K17" t="n">
-        <v>603.8258527522896</v>
+        <v>603.8258527522887</v>
       </c>
       <c r="L17" t="n">
-        <v>801.904038558588</v>
+        <v>801.9040385585868</v>
       </c>
       <c r="M17" t="n">
-        <v>459.5335081267037</v>
+        <v>459.5335081267024</v>
       </c>
       <c r="N17" t="n">
-        <v>599.1141561721192</v>
+        <v>599.1141561721266</v>
       </c>
       <c r="O17" t="n">
-        <v>812.6767280995414</v>
+        <v>812.67672809954</v>
       </c>
       <c r="P17" t="n">
-        <v>655.5458532625169</v>
+        <v>655.5458532625157</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.285857385737</v>
+        <v>414.2858573857361</v>
       </c>
       <c r="R17" t="n">
-        <v>96.92938883425475</v>
+        <v>96.92938883425427</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.76894112959525</v>
+        <v>197.8599764700037</v>
       </c>
       <c r="K18" t="n">
-        <v>201.608818978149</v>
+        <v>244.9621578787393</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8783828009692</v>
+        <v>317.8783828009683</v>
       </c>
       <c r="M18" t="n">
-        <v>390.5014714672416</v>
+        <v>390.5014714672406</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3910702271693</v>
+        <v>415.3910702271681</v>
       </c>
       <c r="O18" t="n">
-        <v>418.6163317875817</v>
+        <v>357.5574384506764</v>
       </c>
       <c r="P18" t="n">
-        <v>585.9057860765262</v>
+        <v>267.4430174365882</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.3551438445484</v>
+        <v>338.432431580397</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.24019799769854</v>
+        <v>31.2401979976983</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4855618325542</v>
+        <v>182.4855618325538</v>
       </c>
       <c r="L19" t="n">
-        <v>289.6059992454556</v>
+        <v>289.605999245455</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8429841787757</v>
+        <v>315.8429841787752</v>
       </c>
       <c r="N19" t="n">
-        <v>313.8224554960107</v>
+        <v>313.8224554960101</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6877550096094</v>
+        <v>273.687755009609</v>
       </c>
       <c r="P19" t="n">
-        <v>210.4288905537704</v>
+        <v>210.4288905537699</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.41219769101802</v>
+        <v>61.41219769101774</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>321.5108386286559</v>
+        <v>321.5108386286554</v>
       </c>
       <c r="K20" t="n">
-        <v>603.8258527522897</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L20" t="n">
-        <v>479.8750080183163</v>
+        <v>801.9040385585873</v>
       </c>
       <c r="M20" t="n">
-        <v>909.0470416195363</v>
+        <v>587.0180110792708</v>
       </c>
       <c r="N20" t="n">
-        <v>471.629653219557</v>
+        <v>471.6296532195561</v>
       </c>
       <c r="O20" t="n">
-        <v>812.6767280995415</v>
+        <v>812.6767280995406</v>
       </c>
       <c r="P20" t="n">
-        <v>655.5458532625169</v>
+        <v>655.5458532625162</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.285857385737</v>
+        <v>414.2858573857364</v>
       </c>
       <c r="R20" t="n">
-        <v>96.92938883425478</v>
+        <v>96.92938883425447</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>197.8599764700041</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K21" t="n">
-        <v>244.9621578787324</v>
+        <v>201.6088189781486</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8783828009692</v>
+        <v>317.8783828009686</v>
       </c>
       <c r="M21" t="n">
-        <v>390.5014714672417</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3910702271693</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O21" t="n">
-        <v>357.5574384506775</v>
+        <v>357.5574384506768</v>
       </c>
       <c r="P21" t="n">
-        <v>267.4430174365891</v>
+        <v>310.7963563371762</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.4324315803976</v>
+        <v>338.4324315803972</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.24019799769856</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4855618325543</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L22" t="n">
-        <v>289.6059992454556</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8429841787757</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N22" t="n">
-        <v>313.8224554960107</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6877550096095</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P22" t="n">
-        <v>210.4288905537704</v>
+        <v>210.4288905537701</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.41219769101802</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>321.5108386286559</v>
+        <v>321.5108386286554</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8258527522897</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L23" t="n">
-        <v>801.9040385585881</v>
+        <v>801.9040385585873</v>
       </c>
       <c r="M23" t="n">
-        <v>459.5335081267039</v>
+        <v>459.5335081267029</v>
       </c>
       <c r="N23" t="n">
-        <v>599.1141561721183</v>
+        <v>599.1141561721239</v>
       </c>
       <c r="O23" t="n">
-        <v>812.6767280995415</v>
+        <v>812.6767280995406</v>
       </c>
       <c r="P23" t="n">
-        <v>655.5458532625169</v>
+        <v>655.5458532625162</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.285857385737</v>
+        <v>414.2858573857364</v>
       </c>
       <c r="R23" t="n">
-        <v>96.92938883425478</v>
+        <v>96.92938883425447</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>197.8599764700041</v>
+        <v>71.76894112959502</v>
       </c>
       <c r="K24" t="n">
-        <v>244.9621578787324</v>
+        <v>201.6088189781486</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8783828009692</v>
+        <v>688.7187281044278</v>
       </c>
       <c r="M24" t="n">
-        <v>390.5014714672417</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3910702271693</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O24" t="n">
-        <v>357.5574384506775</v>
+        <v>357.5574384506768</v>
       </c>
       <c r="P24" t="n">
-        <v>267.4430174365891</v>
+        <v>267.4430174365885</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.4324315803976</v>
+        <v>137.0364605179346</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.24019799769856</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4855618325543</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L25" t="n">
-        <v>289.6059992454556</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8429841787757</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N25" t="n">
-        <v>313.8224554960107</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6877550096095</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P25" t="n">
-        <v>210.4288905537704</v>
+        <v>210.4288905537701</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.41219769101802</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36835,7 +36835,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.49863127620307</v>
+        <v>92.49863127620252</v>
       </c>
       <c r="K37" t="n">
-        <v>252.9678742074564</v>
+        <v>252.9678742074558</v>
       </c>
       <c r="L37" t="n">
-        <v>366.6775868333349</v>
+        <v>366.6775868333345</v>
       </c>
       <c r="M37" t="n">
-        <v>394.5535940566207</v>
+        <v>394.5535940566201</v>
       </c>
       <c r="N37" t="n">
-        <v>391.7771608306769</v>
+        <v>391.7771608306763</v>
       </c>
       <c r="O37" t="n">
-        <v>349.2733448857766</v>
+        <v>349.2733448857761</v>
       </c>
       <c r="P37" t="n">
-        <v>281.8772858082473</v>
+        <v>281.8772858082467</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3144532010305</v>
+        <v>125.3144532010299</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37555,7 +37555,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>485.2089366502535</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
